--- a/Database/Test-list-1.xlsx
+++ b/Database/Test-list-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USTH_SUBJECTS\B3\GroupProject\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2CABAE8-DA2B-4EEC-94DE-D6765CF64E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC8D42C-F6BC-4B38-A075-D43F7CC952BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4356" yWindow="1848" windowWidth="17280" windowHeight="9420" xr2:uid="{7357445F-81A2-4738-88ED-174E0BFB847B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7357445F-81A2-4738-88ED-174E0BFB847B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,18 +42,12 @@
     <t>Trịnh Văn Quyết</t>
   </si>
   <si>
-    <t>00001</t>
-  </si>
-  <si>
     <t>DS</t>
   </si>
   <si>
     <t>Đỗ Duy Minh</t>
   </si>
   <si>
-    <t>00002</t>
-  </si>
-  <si>
     <t>Nguyễn Tiến Công</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>Đào Xuân Bách</t>
   </si>
   <si>
-    <t>00004</t>
-  </si>
-  <si>
     <t>Trần Tuấn kiệt</t>
   </si>
   <si>
@@ -112,6 +103,15 @@
   </si>
   <si>
     <t>22BI13333</t>
+  </si>
+  <si>
+    <t>22BI11111</t>
+  </si>
+  <si>
+    <t>22BI13049</t>
+  </si>
+  <si>
+    <t>22BI13388</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,10 +511,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -522,13 +522,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -536,13 +536,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -550,13 +550,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -564,13 +564,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -578,13 +578,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -592,13 +592,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -606,13 +606,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -620,13 +620,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -634,13 +634,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -648,13 +648,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -662,13 +662,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
